--- a/biology/Botanique/Oenanthe_lachenalii/Oenanthe_lachenalii.xlsx
+++ b/biology/Botanique/Oenanthe_lachenalii/Oenanthe_lachenalii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Œnanthe de Lachenal
 Oenanthe lachenalii, de nom vernaculaire Œnanthe de Lachenal, est une espèce de plantes vivaces de la famille des Apiaceae et du genre Oenanthe.
@@ -514,11 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 50 à 80 cm, vert glauque, à racines tubéreuses charnues, filiformes puis renflées à l'extrémité en massue allongée ; la tige est assez grêle, dure, pleine ou un peu creuse supérieurement, faiblement sillonnée. Les feuilles sont bipennatiséquées, les inférieures ont les segments obovales ou oblongs en coin, les caulinaires à lobes linéaires[1].
-Appareil reproducteur
-Les fleurs sont blanches, les extérieures à peine rayonnantes à pétales arrondis à la base, fendus jusqu'au milieu ; les ombelles sont petites à 7 à 12 rayons toujours grêles. L'involucre est nul ou à 1 à 5 folioles caduques ; les ombellules fructifères sont convexes. Les styles égalent la moitié du fruit ; ce dernier est oblong, atténué et sans anneau à la base. 
-La floraison a lieu de juin à août[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 50 à 80 cm, vert glauque, à racines tubéreuses charnues, filiformes puis renflées à l'extrémité en massue allongée ; la tige est assez grêle, dure, pleine ou un peu creuse supérieurement, faiblement sillonnée. Les feuilles sont bipennatiséquées, les inférieures ont les segments obovales ou oblongs en coin, les caulinaires à lobes linéaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oenanthe_lachenalii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oenanthe_lachenalii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches, les extérieures à peine rayonnantes à pétales arrondis à la base, fendus jusqu'au milieu ; les ombelles sont petites à 7 à 12 rayons toujours grêles. L'involucre est nul ou à 1 à 5 folioles caduques ; les ombellules fructifères sont convexes. Les styles égalent la moitié du fruit ; ce dernier est oblong, atténué et sans anneau à la base. 
+La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
